--- a/Feature-Analysis/Resize Feature/s_29_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_29_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.51708333334</v>
+        <v>738157.51708333334</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.51770833333</v>
+        <v>738157.51770833333</v>
       </c>
       <c r="C3" s="0">
         <v>53.999998793005943</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.51806712965</v>
+        <v>738157.51806712965</v>
       </c>
       <c r="C4" s="0">
         <v>85.000001639127731</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.51841435186</v>
+        <v>738157.51841435186</v>
       </c>
       <c r="C5" s="0">
         <v>114.99999985098839</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.51875000005</v>
+        <v>738157.51875000005</v>
       </c>
       <c r="C6" s="0">
         <v>144.00000348687172</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.5191319444</v>
+        <v>738157.5191319444</v>
       </c>
       <c r="C7" s="0">
         <v>176.99999548494816</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.51944444445</v>
+        <v>738157.51944444445</v>
       </c>
       <c r="C8" s="0">
         <v>203.99999991059303</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.51980324078</v>
+        <v>738157.51980324078</v>
       </c>
       <c r="C9" s="0">
         <v>235.00000275671482</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.52061342588</v>
+        <v>738157.52061342588</v>
       </c>
       <c r="C10" s="0">
         <v>304.99999523162842</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.52061342588</v>
+        <v>738157.52061342588</v>
       </c>
       <c r="C11" s="0">
         <v>304.99999523162842</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.52078703698</v>
+        <v>738157.52078703698</v>
       </c>
       <c r="C12" s="0">
         <v>319.99999433755875</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.52119212958</v>
+        <v>738157.52119212958</v>
       </c>
       <c r="C13" s="0">
         <v>354.99999560415745</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.52152777778</v>
+        <v>738157.52152777778</v>
       </c>
       <c r="C14" s="0">
         <v>383.99999924004078</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.52187499998</v>
+        <v>738157.52187499998</v>
       </c>
       <c r="C15" s="0">
         <v>413.99999745190144</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.52221064817</v>
+        <v>738157.52221064817</v>
       </c>
       <c r="C16" s="0">
         <v>443.00000108778477</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.52258101851</v>
+        <v>738157.52258101851</v>
       </c>
       <c r="C17" s="0">
         <v>474.99999850988388</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.52325231477</v>
+        <v>738157.52325231477</v>
       </c>
       <c r="C18" s="0">
         <v>532.99999572336674</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.52359953709</v>
+        <v>738157.52359953709</v>
       </c>
       <c r="C19" s="0">
         <v>563.0000039935112</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.5239583333</v>
+        <v>738157.5239583333</v>
       </c>
       <c r="C20" s="0">
         <v>593.99999678134918</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.52424768521</v>
+        <v>738157.52424768521</v>
       </c>
       <c r="C21" s="0">
         <v>619.0000019967556</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.52468749997</v>
+        <v>738157.52468749997</v>
       </c>
       <c r="C22" s="0">
         <v>656.99999704957008</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.52501157403</v>
+        <v>738157.52501157403</v>
       </c>
       <c r="C23" s="0">
         <v>684.99999605119228</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.52534722222</v>
+        <v>738157.52534722222</v>
       </c>
       <c r="C24" s="0">
         <v>713.99999968707561</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.52603009262</v>
+        <v>738157.52603009262</v>
       </c>
       <c r="C25" s="0">
         <v>773.0000015348196</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.52603009262</v>
+        <v>738157.52603009262</v>
       </c>
       <c r="C26" s="0">
         <v>773.0000015348196</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.52636574069</v>
+        <v>738157.52636574069</v>
       </c>
       <c r="C27" s="0">
         <v>801.99999511241913</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.52674768516</v>
+        <v>738157.52674768516</v>
       </c>
       <c r="C28" s="0">
         <v>834.99999716877937</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.52703703707</v>
+        <v>738157.52703703707</v>
       </c>
       <c r="C29" s="0">
         <v>860.00000238418579</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.52743055555</v>
+        <v>738157.52743055555</v>
       </c>
       <c r="C30" s="0">
         <v>893.99999901652336</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.52777777775</v>
+        <v>738157.52777777775</v>
       </c>
       <c r="C31" s="0">
         <v>923.99999722838402</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.52812499995</v>
+        <v>738157.52812499995</v>
       </c>
       <c r="C32" s="0">
         <v>953.99999544024467</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.52847222227</v>
+        <v>738157.52847222227</v>
       </c>
       <c r="C33" s="0">
         <v>984.00000371038914</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.52880787035</v>
+        <v>738157.52880787035</v>
       </c>
       <c r="C34" s="0">
         <v>1012.9999972879887</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.52916666667</v>
+        <v>738157.52916666667</v>
       </c>
       <c r="C35" s="0">
         <v>1044.0000001341105</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.529525463</v>
+        <v>738157.529525463</v>
       </c>
       <c r="C36" s="0">
         <v>1075.0000029802322</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.52984953707</v>
+        <v>738157.52984953707</v>
       </c>
       <c r="C37" s="0">
         <v>1103.0000019818544</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.53020833328</v>
+        <v>738157.53020833328</v>
       </c>
       <c r="C38" s="0">
         <v>1133.9999947696924</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.5305555556</v>
+        <v>738157.5305555556</v>
       </c>
       <c r="C39" s="0">
         <v>1164.0000030398369</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.53091435181</v>
+        <v>738157.53091435181</v>
       </c>
       <c r="C40" s="0">
         <v>1194.9999958276749</v>
